--- a/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMaderaV2.xlsx
+++ b/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMaderaV2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\00-000_EMPRESA_Casa Madera\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927613AD-FEA2-46D7-B400-E53BB35C32CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7303A31-278F-427F-8DE0-E23C2487A611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Flexión" sheetId="4" r:id="rId1"/>
-    <sheet name="Compresión Paralela" sheetId="3" r:id="rId2"/>
-    <sheet name="Tracción" sheetId="1" r:id="rId3"/>
-    <sheet name="Secciones" sheetId="2" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="5" r:id="rId1"/>
+    <sheet name="Flexión (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="Flexión" sheetId="4" r:id="rId3"/>
+    <sheet name="Compresión Paralela" sheetId="3" r:id="rId4"/>
+    <sheet name="Tracción" sheetId="1" r:id="rId5"/>
+    <sheet name="Secciones" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
   <si>
     <t>Madera</t>
   </si>
@@ -229,6 +231,63 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Cargas</t>
+  </si>
+  <si>
+    <t>Cordón</t>
+  </si>
+  <si>
+    <t>Diagonal</t>
+  </si>
+  <si>
+    <t>VM2h27</t>
+  </si>
+  <si>
+    <t>VM2h27v2</t>
+  </si>
+  <si>
+    <t>VM2h31</t>
+  </si>
+  <si>
+    <t>Lcordon</t>
+  </si>
+  <si>
+    <t>Ldiag</t>
+  </si>
+  <si>
+    <t>Long Pandeo</t>
+  </si>
+  <si>
+    <t>VM2h31v2</t>
+  </si>
+  <si>
+    <t>40x130</t>
+  </si>
+  <si>
+    <t>24x90*</t>
+  </si>
+  <si>
+    <t>Tracción</t>
+  </si>
+  <si>
+    <t>Compresión</t>
+  </si>
+  <si>
+    <t>40x90</t>
+  </si>
+  <si>
+    <t>24x90</t>
+  </si>
+  <si>
+    <t>Mmax</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -278,11 +337,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,11 +633,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEC9226-5640-419E-BA8C-91528561F23A}">
-  <dimension ref="A1:M36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F40BD-2237-491B-9B4B-1667DC387EAE}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>23.58</v>
+      </c>
+      <c r="C4">
+        <v>-21.73</v>
+      </c>
+      <c r="D4">
+        <v>9.09</v>
+      </c>
+      <c r="E4">
+        <v>-11.8</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>29.97</v>
+      </c>
+      <c r="K4">
+        <v>26.54</v>
+      </c>
+      <c r="L4">
+        <v>13.4</v>
+      </c>
+      <c r="M4">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>22.67</v>
+      </c>
+      <c r="C5">
+        <v>-22.53</v>
+      </c>
+      <c r="D5">
+        <v>8.84</v>
+      </c>
+      <c r="E5">
+        <v>-12.9</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>29.97</v>
+      </c>
+      <c r="K5">
+        <v>29.59</v>
+      </c>
+      <c r="L5">
+        <v>13.4</v>
+      </c>
+      <c r="M5">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>21.01</v>
+      </c>
+      <c r="C6">
+        <v>-19.36</v>
+      </c>
+      <c r="D6">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E6">
+        <v>-11.27</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>29.97</v>
+      </c>
+      <c r="K6">
+        <v>26.54</v>
+      </c>
+      <c r="L6">
+        <v>13.4</v>
+      </c>
+      <c r="M6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>20.13</v>
+      </c>
+      <c r="C7">
+        <v>-20.03</v>
+      </c>
+      <c r="D7">
+        <v>6.46</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7">
+        <v>22.33</v>
+      </c>
+      <c r="K7">
+        <v>20.48</v>
+      </c>
+      <c r="L7">
+        <v>13.4</v>
+      </c>
+      <c r="M7">
+        <v>11.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B22C4-E514-4A39-8837-976282850187}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -680,7 +1032,7 @@
       </c>
       <c r="M11">
         <f>1.2*I18/I16^2</f>
-        <v>34.394099051633297</v>
+        <v>70.792365529207615</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -694,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>36</v>
@@ -704,7 +1056,7 @@
       </c>
       <c r="M12">
         <f>M11/I17</f>
-        <v>3.2324648984595794</v>
+        <v>6.6532877139346587</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -736,14 +1088,14 @@
       </c>
       <c r="I14">
         <f>I11/I12</f>
-        <v>15.384615384615385</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="L14" t="s">
         <v>33</v>
       </c>
       <c r="M14">
         <f>(1+M12)/1.9-SQRT(((1+M12)/1.9)^2-M12/0.95)</f>
-        <v>0.97874741384727049</v>
+        <v>0.99132175269080847</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -752,14 +1104,14 @@
       </c>
       <c r="B15">
         <f>M14</f>
-        <v>0.97874741384727049</v>
+        <v>0.99132175269080847</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
       </c>
       <c r="I15">
         <f>IF(I14&lt;7,1.33*I11,0.9*I11+3*I12)</f>
-        <v>219</v>
+        <v>53.2</v>
       </c>
       <c r="J15" t="s">
         <v>36</v>
@@ -781,7 +1133,7 @@
       </c>
       <c r="I16">
         <f>SQRT(I15*I12/I13^2)</f>
-        <v>13.3393215719541</v>
+        <v>9.2978492136622659</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,43 +1173,50 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <f>B5*B11*B12*B13*B14*B15*C16</f>
-        <v>11.208846357185728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
+        <f>B5*B11*B12*B13*B14*B15*C18</f>
+        <v>9.883230531011975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <f>B26*B27^2/6</f>
+        <v>450.66666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <f>B20*B21/1000</f>
+        <v>4.4540425593093973</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -865,82 +1224,93 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <f>2*B25*B26^3/12/(100*1000000)</f>
-        <v>1.4646666666666668E-5</v>
-      </c>
-      <c r="D27">
-        <f>2*B25*B26^3/12</f>
-        <v>1464.6666666666667</v>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>0.05</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
+        <f>2*B26*B27^3/12/(100*1000000)</f>
+        <v>1.1717333333333335E-4</v>
+      </c>
+      <c r="D28">
+        <f>2*B26*B27^3/12</f>
+        <v>11717.333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>0.05</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B29">
-        <f>B28*1000/9.81</f>
+      <c r="B30">
+        <f>B29*1000/9.81</f>
         <v>5.0968399592252798</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
-        <f>(PI()/(2*B24^2))*SQRT(B27*E6*1000000/B29)</f>
-        <v>72.923819792778701</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32">
+        <f>(PI()/(2*B25^2))*SQRT(B28*E6*1000000/B30)</f>
+        <v>71.370141848442344</v>
+      </c>
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <f>IF(7.5/B24^1.2&lt;1.5,7.5/B24^1.2,1.5)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <f>B24^3*100000000/(48*E6*D27)</f>
-        <v>0.94826278258230923</v>
+        <f>IF(7.5/B25^1.2&lt;1.5,7.5/B25^1.2,1.5)</f>
+        <v>1.5</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
       </c>
-      <c r="E36" t="str">
-        <f>IF(B36&lt;B35,"Verifica","No Verifica")</f>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <f>B25^3*100000000/(48*E6*D28)</f>
+        <v>0.58235188135336058</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(B37&lt;B36,"Verifica","No Verifica")</f>
         <v>Verifica</v>
       </c>
     </row>
@@ -949,12 +1319,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEC9226-5640-419E-BA8C-91528561F23A}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1">
+        <v>200</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <f>1.2*I18/I16^2</f>
+        <v>34.394099051633297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <f>M11/I17</f>
+        <v>3.2324648984595794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <f>I11/I12</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14">
+        <f>(1+M12)/1.9-SQRT(((1+M12)/1.9)^2-M12/0.95)</f>
+        <v>0.97874741384727049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>M14</f>
+        <v>0.97874741384727049</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <f>IF(I14&lt;7,1.33*I11,0.9*I11+3*I12)</f>
+        <v>219</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <f>(150/B16)^0.2</f>
+        <v>1.1075663432482901</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <f>SQRT(I15*I12/I13^2)</f>
+        <v>13.3393215719541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C18" si="0">(150/B17)^0.2</f>
+        <v>1.0290336610711879</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17">
+        <f>B5*B11*B12*B13*B14*C17</f>
+        <v>10.640208055476084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.96419250400262724</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <f>E8*B12*B13</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <f>B5*B11*B12*B13*B14*B15*C16</f>
+        <v>11.208846357185728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <f>2*B25*B26^3/12/(100*1000000)</f>
+        <v>1.4646666666666668E-5</v>
+      </c>
+      <c r="D27">
+        <f>2*B25*B26^3/12</f>
+        <v>1464.6666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29">
+        <f>B28*1000/9.81</f>
+        <v>5.0968399592252798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f>(PI()/(2*B24^2))*SQRT(B27*E6*1000000/B29)</f>
+        <v>72.923819792778701</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <f>IF(7.5/B24^1.2&lt;1.5,7.5/B24^1.2,1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <f>B24^3*100000000/(48*E6*D27)</f>
+        <v>0.94826278258230923</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(B36&lt;B35,"Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D159BC-4AE8-48E1-A54E-52519EB56EC2}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,16 +1721,16 @@
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1">
-        <v>24</v>
+      <c r="B1" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>130</v>
+      <c r="B2" s="1">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,8 +1859,8 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
-        <v>130</v>
+      <c r="B19" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1869,7 @@
       </c>
       <c r="B20">
         <f>MIN(B1,B2)/10</f>
-        <v>2.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,7 +1886,7 @@
       </c>
       <c r="B23">
         <f>0.822*$E$18/($B$19/B20)^2</f>
-        <v>1.4288208284023665</v>
+        <v>6.8437098255280073</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1895,7 @@
       </c>
       <c r="B24">
         <f>(1+B23/$B$18)/(2*$B$21)-SQRT(((1+B23/$B$18)/(2*$B$21))^2-B23/$B$18/$B$21)</f>
-        <v>0.18957793569461534</v>
+        <v>0.67318508926697818</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,7 +1904,7 @@
       </c>
       <c r="B25">
         <f>$B$18*B24</f>
-        <v>1.3649611370012305</v>
+        <v>4.8469326427222432</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,7 +1913,7 @@
       </c>
       <c r="B27" s="2">
         <f>B25*(B1*B2)/1000</f>
-        <v>4.258678747443839</v>
+        <v>34.897915027600156</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,12 +1937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,12 +2245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B6D26E-E587-417C-978B-498D6BA8933D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMaderaV2.xlsx
+++ b/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMaderaV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\00-000_EMPRESA_Casa Madera\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7303A31-278F-427F-8DE0-E23C2487A611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED491B-A8EE-4C63-B13B-7D05DE95C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="5" r:id="rId1"/>
@@ -343,16 +343,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,89 +643,89 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -895,6 +895,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -904,10 +908,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1730,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B27" s="2">
         <f>B25*(B1*B2)/1000</f>
-        <v>34.897915027600156</v>
+        <v>25.204049742155664</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B6D26E-E587-417C-978B-498D6BA8933D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
